--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1584906.236839434</v>
+        <v>1561271.720940214</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7127531.652563267</v>
+        <v>7127531.652563264</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4656432.038536484</v>
+        <v>4656432.038536483</v>
       </c>
     </row>
     <row r="9">
@@ -670,19 +670,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="F2" t="n">
-        <v>39.58387696184059</v>
+        <v>37.20662970553738</v>
       </c>
       <c r="G2" t="n">
-        <v>39.58387696184059</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -749,16 +749,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -828,22 +828,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I4" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>9.977552361264268</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.572042098309312</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,25 +980,25 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="X7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="G8" t="n">
-        <v>28.88091821707973</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>1.628891347332162</v>
       </c>
     </row>
     <row r="9">
@@ -1217,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>38.12502610536668</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E10" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>42.20118209180436</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.8696176017226</v>
+        <v>249.5784830228628</v>
       </c>
       <c r="H11" t="n">
         <v>304.3153628025318</v>
       </c>
       <c r="I11" t="n">
-        <v>78.1205341085718</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.7878495593588</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>208.0673671431683</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.0710033147635</v>
       </c>
       <c r="V11" t="n">
-        <v>259.2816221434703</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>135.5066360699164</v>
       </c>
       <c r="H12" t="n">
-        <v>94.49503999336537</v>
+        <v>94.49503999336538</v>
       </c>
       <c r="I12" t="n">
         <v>26.15313906913578</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>137.5639104454999</v>
+        <v>137.5639104455001</v>
       </c>
       <c r="T12" t="n">
         <v>192.7608088494821</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.450999954676</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5526375416737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>108.0503174579918</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.1789569728672</v>
+        <v>99.8053310050088</v>
       </c>
       <c r="T13" t="n">
-        <v>221.3656774303006</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2350304799209</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.8696176017226</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>252.4569929167405</v>
       </c>
       <c r="I14" t="n">
-        <v>78.1205341085718</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>179.7668321211213</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.450999954676</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>109.1390943116821</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>108.0503174579918</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>159.8532806617011</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2350304799209</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.318209224011</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>133.4084203601938</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.8696176017226</v>
       </c>
       <c r="H17" t="n">
-        <v>277.55330890986</v>
+        <v>304.3153628025318</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>78.1205341085718</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>208.0673671431683</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.0710033147635</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>93.47270324666833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.450999954676</v>
       </c>
       <c r="H19" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>109.1390943116821</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.1789569728672</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>125.4247215757204</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>149.554038422818</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.8696176017226</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>68.94077628380342</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>141.2091563611583</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.450999954676</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>197.1789569728672</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>91.18645570480358</v>
       </c>
       <c r="U22" t="n">
         <v>286.2350304799209</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>122.3480704417095</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6408579414723</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.3656774303006</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>109.1390943116821</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.0503174579918</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.1789569728672</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.3656774303006</v>
       </c>
       <c r="U28" t="n">
         <v>286.2350304799209</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>106.4011859400479</v>
       </c>
       <c r="X28" t="n">
-        <v>136.6742927428794</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>77.55263754167365</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.0503174579918</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.1789569728672</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3656774303006</v>
+        <v>197.2045185406105</v>
       </c>
       <c r="U31" t="n">
         <v>286.2350304799209</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>74.43347923122295</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>108.0503174579918</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.1789569728672</v>
+        <v>11.65120856056431</v>
       </c>
       <c r="T34" t="n">
         <v>221.3656774303006</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2350304799209</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>230.8211178097231</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.3153628025318</v>
       </c>
       <c r="I35" t="n">
-        <v>78.1205341085718</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>130.7878495593588</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0673671431683</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710033147635</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>347.7740412297811</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>166.450999954676</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.3656774303006</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2350304799209</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9631245297382</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>11.71854973211449</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8696176017226</v>
+        <v>181.1089354581887</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.7878495593588</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>162.7316559045215</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>77.55263754167372</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.6545878553335</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,22 +3742,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>316.6833614542003</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.3153628025318</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.7878495593588</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>135.039852236892</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5639104454997</v>
+        <v>137.5639104454999</v>
       </c>
       <c r="T42" t="n">
         <v>192.7608088494821</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>197.1789569728672</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>14.15787848632588</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350304799209</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>147.3073124288607</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>204.8701728277751</v>
+        <v>74.08232326841653</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.7878495593588</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5639104454999</v>
+        <v>137.5639104454997</v>
       </c>
       <c r="T45" t="n">
         <v>192.7608088494821</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>21.92812841634788</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4152,7 +4152,7 @@
         <v>166.450999954676</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>30.74866787908735</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.1789569728672</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="C2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="E2" t="n">
-        <v>108.260178376266</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="F2" t="n">
-        <v>68.2764642733967</v>
+        <v>30.69401002537914</v>
       </c>
       <c r="G2" t="n">
-        <v>28.29275017052741</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H2" t="n">
-        <v>28.29275017052741</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J2" t="n">
         <v>3.166710156947247</v>
@@ -4336,16 +4336,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L2" t="n">
+        <v>42.35474834916943</v>
+      </c>
+      <c r="M2" t="n">
         <v>81.54278654139161</v>
-      </c>
-      <c r="M2" t="n">
-        <v>119.1474696551402</v>
       </c>
       <c r="N2" t="n">
         <v>119.1474696551402</v>
       </c>
       <c r="O2" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="P2" t="n">
         <v>158.3355078473624</v>
@@ -4354,28 +4354,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="T2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="V2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="W2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="X2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="Y2" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="C3" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="D3" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="E3" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="F3" t="n">
+        <v>123.8719851183408</v>
+      </c>
+      <c r="G3" t="n">
+        <v>83.88827101547153</v>
+      </c>
+      <c r="H3" t="n">
         <v>43.90455691260225</v>
-      </c>
-      <c r="C3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="D3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="E3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="G3" t="n">
-        <v>43.90455691260225</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.920842809732961</v>
       </c>
       <c r="I3" t="n">
         <v>3.920842809732961</v>
@@ -4418,16 +4418,16 @@
         <v>42.35474834916943</v>
       </c>
       <c r="M3" t="n">
-        <v>42.35474834916943</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N3" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Q3" t="n">
         <v>158.3355078473624</v>
@@ -4436,25 +4436,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="S3" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X3" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.90455691260225</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="E4" t="n">
-        <v>90.46354404567346</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46354404567346</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G4" t="n">
-        <v>90.46354404567346</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I4" t="n">
-        <v>65.64486044757699</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J4" t="n">
-        <v>25.66114634470771</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="K4" t="n">
         <v>3.166710156947247</v>
@@ -4506,34 +4506,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4472581485427</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="W4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="X4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4472581485427</v>
+        <v>123.1178524655551</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.29275017052741</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="C5" t="n">
-        <v>28.29275017052741</v>
+        <v>108.260178376266</v>
       </c>
       <c r="D5" t="n">
-        <v>28.29275017052741</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="E5" t="n">
-        <v>28.29275017052741</v>
+        <v>95.20412760976917</v>
       </c>
       <c r="F5" t="n">
-        <v>18.62402077829578</v>
+        <v>55.22041350689989</v>
       </c>
       <c r="G5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
-        <v>3.166710156947247</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="J5" t="n">
         <v>3.166710156947247</v>
@@ -4579,10 +4579,10 @@
         <v>79.95943146291799</v>
       </c>
       <c r="N5" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O5" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="O5" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P5" t="n">
         <v>158.3355078473624</v>
@@ -4594,25 +4594,25 @@
         <v>148.2438924791353</v>
       </c>
       <c r="S5" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T5" t="n">
-        <v>108.260178376266</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U5" t="n">
-        <v>68.2764642733967</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V5" t="n">
-        <v>68.2764642733967</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W5" t="n">
-        <v>68.2764642733967</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X5" t="n">
-        <v>28.29275017052741</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y5" t="n">
-        <v>28.29275017052741</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="6">
@@ -4628,43 +4628,43 @@
         <v>78.36807964162378</v>
       </c>
       <c r="D6" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="E6" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="F6" t="n">
-        <v>43.15042425981653</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="G6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="H6" t="n">
-        <v>43.15042425981653</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="I6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J6" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
         <v>42.35474834916943</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="N6" t="n">
-        <v>120.7308247336138</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O6" t="n">
-        <v>158.3355078473624</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="P6" t="n">
-        <v>158.3355078473624</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="Q6" t="n">
         <v>158.3355078473624</v>
@@ -4673,7 +4673,7 @@
         <v>118.3517937444931</v>
       </c>
       <c r="S6" t="n">
-        <v>118.3517937444931</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T6" t="n">
         <v>78.36807964162378</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4752,25 +4752,25 @@
         <v>130.4472581485427</v>
       </c>
       <c r="S7" t="n">
-        <v>123.1178524655551</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="T7" t="n">
-        <v>83.13413836268582</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="U7" t="n">
-        <v>83.13413836268582</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="V7" t="n">
-        <v>83.13413836268582</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W7" t="n">
-        <v>83.13413836268582</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="X7" t="n">
-        <v>43.15042425981653</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>121.8591222504766</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="C8" t="n">
-        <v>121.8591222504766</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="D8" t="n">
-        <v>121.8591222504766</v>
+        <v>120.2137774551916</v>
       </c>
       <c r="E8" t="n">
-        <v>121.8591222504766</v>
+        <v>75.63582555698088</v>
       </c>
       <c r="F8" t="n">
-        <v>77.28117035226589</v>
+        <v>31.05787365877018</v>
       </c>
       <c r="G8" t="n">
-        <v>48.10852568854899</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>48.10852568854899</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
         <v>3.530573790338288</v>
@@ -4831,25 +4831,25 @@
         <v>166.4370741486873</v>
       </c>
       <c r="S8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>166.4370741486873</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y8" t="n">
-        <v>166.4370741486873</v>
+        <v>120.2137774551916</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>48.10852568854899</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C9" t="n">
-        <v>48.10852568854899</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D9" t="n">
-        <v>48.10852568854899</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="E9" t="n">
-        <v>48.10852568854899</v>
+        <v>93.44061023954541</v>
       </c>
       <c r="F9" t="n">
-        <v>48.10852568854899</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>48.8626583413347</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J9" t="n">
         <v>3.530573790338288</v>
@@ -4895,10 +4895,10 @@
         <v>90.91227510121089</v>
       </c>
       <c r="N9" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P9" t="n">
         <v>132.8378388614781</v>
@@ -4913,22 +4913,22 @@
         <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="U9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="V9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="W9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="X9" t="n">
+        <v>176.5286895169144</v>
+      </c>
+      <c r="Y9" t="n">
         <v>131.9507376187037</v>
-      </c>
-      <c r="U9" t="n">
-        <v>131.9507376187037</v>
-      </c>
-      <c r="V9" t="n">
-        <v>131.9507376187037</v>
-      </c>
-      <c r="W9" t="n">
-        <v>92.68647758675968</v>
-      </c>
-      <c r="X9" t="n">
-        <v>92.68647758675968</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="10">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>138.062864280609</v>
+      </c>
+      <c r="C10" t="n">
+        <v>137.2644294849704</v>
+      </c>
+      <c r="D10" t="n">
+        <v>92.68647758675968</v>
+      </c>
+      <c r="E10" t="n">
         <v>48.10852568854899</v>
-      </c>
-      <c r="C10" t="n">
-        <v>48.10852568854899</v>
-      </c>
-      <c r="D10" t="n">
-        <v>48.10852568854899</v>
-      </c>
-      <c r="E10" t="n">
-        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
         <v>3.530573790338288</v>
@@ -4980,34 +4980,34 @@
         <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>135.3139342451479</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>92.68647758675968</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>48.10852568854899</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>853.8161734186609</v>
+        <v>1723.992572182823</v>
       </c>
       <c r="C11" t="n">
-        <v>853.8161734186609</v>
+        <v>1355.030055242412</v>
       </c>
       <c r="D11" t="n">
-        <v>853.8161734186609</v>
+        <v>996.7643566356612</v>
       </c>
       <c r="E11" t="n">
-        <v>853.8161734186609</v>
+        <v>610.9761040374169</v>
       </c>
       <c r="F11" t="n">
-        <v>853.8161734186609</v>
+        <v>610.9761040374169</v>
       </c>
       <c r="G11" t="n">
-        <v>437.7862566492441</v>
+        <v>358.8766262365453</v>
       </c>
       <c r="H11" t="n">
-        <v>130.3970012931515</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="I11" t="n">
         <v>51.48737088045268</v>
       </c>
       <c r="J11" t="n">
-        <v>160.7198690375147</v>
+        <v>328.1255180578677</v>
       </c>
       <c r="K11" t="n">
-        <v>375.1695864168674</v>
+        <v>542.5752354372205</v>
       </c>
       <c r="L11" t="n">
-        <v>678.1151856250594</v>
+        <v>845.5208346454124</v>
       </c>
       <c r="M11" t="n">
-        <v>1046.869973556086</v>
+        <v>1214.275622576439</v>
       </c>
       <c r="N11" t="n">
-        <v>1426.205407855931</v>
+        <v>1593.611056876284</v>
       </c>
       <c r="O11" t="n">
-        <v>1957.329512537311</v>
+        <v>1938.471489551679</v>
       </c>
       <c r="P11" t="n">
-        <v>2217.158912338712</v>
+        <v>2198.30088935308</v>
       </c>
       <c r="Q11" t="n">
-        <v>2574.299064885338</v>
+        <v>2509.239809211085</v>
       </c>
       <c r="R11" t="n">
         <v>2574.368544022634</v>
       </c>
       <c r="S11" t="n">
-        <v>2442.259605073787</v>
+        <v>2574.368544022634</v>
       </c>
       <c r="T11" t="n">
-        <v>2232.090547353414</v>
+        <v>2364.199486302262</v>
       </c>
       <c r="U11" t="n">
-        <v>2232.090547353414</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="V11" t="n">
-        <v>1970.189918925667</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="W11" t="n">
-        <v>1617.421263655553</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="X11" t="n">
-        <v>1243.955505394473</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="Y11" t="n">
-        <v>853.8161734186609</v>
+        <v>2110.592412246945</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>939.3890603088939</v>
+        <v>939.389060308894</v>
       </c>
       <c r="C12" t="n">
-        <v>764.9360310277669</v>
+        <v>764.9360310277671</v>
       </c>
       <c r="D12" t="n">
-        <v>616.0016213665157</v>
+        <v>616.0016213665158</v>
       </c>
       <c r="E12" t="n">
         <v>456.7641663610602</v>
@@ -5111,7 +5111,7 @@
         <v>310.2296083879452</v>
       </c>
       <c r="G12" t="n">
-        <v>173.3542184183326</v>
+        <v>173.3542184183327</v>
       </c>
       <c r="H12" t="n">
         <v>77.90468307149892</v>
@@ -5123,25 +5123,25 @@
         <v>222.5577764952838</v>
       </c>
       <c r="K12" t="n">
-        <v>379.7446058567009</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L12" t="n">
-        <v>637.4242371478508</v>
+        <v>899.2448217903036</v>
       </c>
       <c r="M12" t="n">
-        <v>1274.580451793453</v>
+        <v>1219.301665716327</v>
       </c>
       <c r="N12" t="n">
-        <v>1911.736666439055</v>
+        <v>1562.238106857958</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.236716812969</v>
+        <v>1853.738157231872</v>
       </c>
       <c r="P12" t="n">
-        <v>2417.858140093158</v>
+        <v>2272.8424878521</v>
       </c>
       <c r="Q12" t="n">
-        <v>2560.617519706092</v>
+        <v>2574.368544022634</v>
       </c>
       <c r="R12" t="n">
         <v>2574.368544022634</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.8233683972948</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="C13" t="n">
-        <v>129.8233683972948</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="D13" t="n">
-        <v>129.8233683972948</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8233683972948</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="F13" t="n">
-        <v>129.8233683972948</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="G13" t="n">
-        <v>129.8233683972948</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="H13" t="n">
-        <v>129.8233683972948</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="I13" t="n">
         <v>51.48737088045268</v>
@@ -5223,28 +5223,28 @@
         <v>1494.965412843254</v>
       </c>
       <c r="R13" t="n">
-        <v>1385.823678037202</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="S13" t="n">
-        <v>1186.653014428245</v>
+        <v>1394.151947181629</v>
       </c>
       <c r="T13" t="n">
-        <v>963.0513200542039</v>
+        <v>1394.151947181629</v>
       </c>
       <c r="U13" t="n">
-        <v>673.9250266401423</v>
+        <v>1394.151947181629</v>
       </c>
       <c r="V13" t="n">
-        <v>419.2405384342554</v>
+        <v>1139.467458975742</v>
       </c>
       <c r="W13" t="n">
-        <v>129.8233683972948</v>
+        <v>850.0502889387813</v>
       </c>
       <c r="X13" t="n">
-        <v>129.8233683972948</v>
+        <v>622.0607380407639</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.8233683972948</v>
+        <v>401.2681588972338</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>932.2151706608124</v>
+        <v>1461.534290427318</v>
       </c>
       <c r="C14" t="n">
-        <v>932.2151706608124</v>
+        <v>1461.534290427318</v>
       </c>
       <c r="D14" t="n">
-        <v>932.2151706608124</v>
+        <v>1103.268591820568</v>
       </c>
       <c r="E14" t="n">
-        <v>546.4269180625682</v>
+        <v>717.4803392223234</v>
       </c>
       <c r="F14" t="n">
-        <v>546.4269180625682</v>
+        <v>306.4944344327159</v>
       </c>
       <c r="G14" t="n">
-        <v>130.3970012931515</v>
+        <v>306.4944344327159</v>
       </c>
       <c r="H14" t="n">
-        <v>130.3970012931515</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="I14" t="n">
         <v>51.48737088045268</v>
       </c>
       <c r="J14" t="n">
-        <v>160.7198690375147</v>
+        <v>328.1255180578677</v>
       </c>
       <c r="K14" t="n">
-        <v>696.0735448623204</v>
+        <v>542.5752354372205</v>
       </c>
       <c r="L14" t="n">
-        <v>999.0191440705123</v>
+        <v>845.5208346454124</v>
       </c>
       <c r="M14" t="n">
-        <v>1367.773932001539</v>
+        <v>1214.275622576439</v>
       </c>
       <c r="N14" t="n">
-        <v>1747.109366301384</v>
+        <v>1593.611056876284</v>
       </c>
       <c r="O14" t="n">
-        <v>2091.969798976779</v>
+        <v>1938.471489551679</v>
       </c>
       <c r="P14" t="n">
-        <v>2427.350753092018</v>
+        <v>2198.30088935308</v>
       </c>
       <c r="Q14" t="n">
-        <v>2574.299064885338</v>
+        <v>2509.239809211085</v>
       </c>
       <c r="R14" t="n">
         <v>2574.368544022634</v>
@@ -5311,19 +5311,19 @@
         <v>2574.368544022634</v>
       </c>
       <c r="U14" t="n">
-        <v>2392.785885314431</v>
+        <v>2574.368544022634</v>
       </c>
       <c r="V14" t="n">
-        <v>2061.72299797086</v>
+        <v>2574.368544022634</v>
       </c>
       <c r="W14" t="n">
-        <v>1708.954342700746</v>
+        <v>2221.59988875252</v>
       </c>
       <c r="X14" t="n">
-        <v>1708.954342700746</v>
+        <v>1848.13413049144</v>
       </c>
       <c r="Y14" t="n">
-        <v>1318.815010724934</v>
+        <v>1848.13413049144</v>
       </c>
     </row>
     <row r="15">
@@ -5357,10 +5357,10 @@
         <v>51.48737088045268</v>
       </c>
       <c r="J15" t="n">
-        <v>97.72765150827908</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K15" t="n">
-        <v>465.1651316722252</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L15" t="n">
         <v>1089.9767048138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.752779647355</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="C16" t="n">
-        <v>924.8165967194482</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="D16" t="n">
-        <v>774.6999573071124</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="E16" t="n">
-        <v>626.7868637247193</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="F16" t="n">
-        <v>479.896916226809</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="G16" t="n">
-        <v>311.7645930402675</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="H16" t="n">
-        <v>161.7288802861922</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="I16" t="n">
         <v>51.48737088045268</v>
@@ -5460,28 +5460,28 @@
         <v>1494.965412843254</v>
       </c>
       <c r="R16" t="n">
-        <v>1385.823678037202</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="S16" t="n">
-        <v>1385.823678037202</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="T16" t="n">
-        <v>1385.823678037202</v>
+        <v>1333.497452578909</v>
       </c>
       <c r="U16" t="n">
-        <v>1385.823678037202</v>
+        <v>1044.371159164848</v>
       </c>
       <c r="V16" t="n">
-        <v>1385.823678037202</v>
+        <v>789.6866709589608</v>
       </c>
       <c r="W16" t="n">
-        <v>1385.823678037202</v>
+        <v>500.2695009220001</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.823678037202</v>
+        <v>272.2799500239828</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.401244477595</v>
+        <v>51.48737088045268</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1444.860716712586</v>
+        <v>1757.823756976831</v>
       </c>
       <c r="C17" t="n">
-        <v>1075.898199772175</v>
+        <v>1757.823756976831</v>
       </c>
       <c r="D17" t="n">
-        <v>717.6325011654242</v>
+        <v>1399.558058370081</v>
       </c>
       <c r="E17" t="n">
-        <v>331.8442485671799</v>
+        <v>1264.802078208269</v>
       </c>
       <c r="F17" t="n">
-        <v>331.8442485671799</v>
+        <v>853.8161734186609</v>
       </c>
       <c r="G17" t="n">
-        <v>331.8442485671799</v>
+        <v>437.7862566492441</v>
       </c>
       <c r="H17" t="n">
-        <v>51.48737088045268</v>
+        <v>130.3970012931515</v>
       </c>
       <c r="I17" t="n">
         <v>51.48737088045268</v>
@@ -5521,22 +5521,22 @@
         <v>375.1695864168674</v>
       </c>
       <c r="L17" t="n">
-        <v>782.2749164141428</v>
+        <v>678.1151856250594</v>
       </c>
       <c r="M17" t="n">
-        <v>1151.029704345169</v>
+        <v>1046.869973556086</v>
       </c>
       <c r="N17" t="n">
-        <v>1530.365138645014</v>
+        <v>1426.205407855931</v>
       </c>
       <c r="O17" t="n">
-        <v>2167.521353290616</v>
+        <v>1892.270256863058</v>
       </c>
       <c r="P17" t="n">
-        <v>2427.350753092018</v>
+        <v>2152.099656664459</v>
       </c>
       <c r="Q17" t="n">
-        <v>2574.299064885338</v>
+        <v>2509.239809211085</v>
       </c>
       <c r="R17" t="n">
         <v>2574.368544022634</v>
@@ -5545,22 +5545,22 @@
         <v>2574.368544022634</v>
       </c>
       <c r="T17" t="n">
-        <v>2574.368544022634</v>
+        <v>2364.199486302262</v>
       </c>
       <c r="U17" t="n">
-        <v>2574.368544022634</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="V17" t="n">
-        <v>2574.368544022634</v>
+        <v>2110.592412246945</v>
       </c>
       <c r="W17" t="n">
-        <v>2221.59988875252</v>
+        <v>1757.823756976831</v>
       </c>
       <c r="X17" t="n">
-        <v>2221.59988875252</v>
+        <v>1757.823756976831</v>
       </c>
       <c r="Y17" t="n">
-        <v>1831.460556776708</v>
+        <v>1757.823756976831</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>51.48737088045268</v>
       </c>
       <c r="J18" t="n">
-        <v>97.72765150827908</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K18" t="n">
-        <v>254.9144808696961</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L18" t="n">
-        <v>512.594112160846</v>
+        <v>899.2448217903036</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.750326806448</v>
+        <v>1219.301665716327</v>
       </c>
       <c r="N18" t="n">
-        <v>1786.90654145205</v>
+        <v>1562.238106857958</v>
       </c>
       <c r="O18" t="n">
-        <v>2078.406591825965</v>
+        <v>1853.738157231872</v>
       </c>
       <c r="P18" t="n">
-        <v>2293.028015106153</v>
+        <v>2259.091463535557</v>
       </c>
       <c r="Q18" t="n">
-        <v>2574.368544022634</v>
+        <v>2560.617519706091</v>
       </c>
       <c r="R18" t="n">
         <v>2574.368544022634</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>575.1176479345061</v>
+        <v>538.6725164072368</v>
       </c>
       <c r="C19" t="n">
-        <v>406.1814650065992</v>
+        <v>369.7363334793299</v>
       </c>
       <c r="D19" t="n">
-        <v>311.7645930402675</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="E19" t="n">
-        <v>311.7645930402675</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="F19" t="n">
-        <v>311.7645930402675</v>
+        <v>219.6196940669941</v>
       </c>
       <c r="G19" t="n">
-        <v>311.7645930402675</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="H19" t="n">
-        <v>161.7288802861922</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="I19" t="n">
         <v>51.48737088045268</v>
@@ -5700,25 +5700,25 @@
         <v>1494.965412843254</v>
       </c>
       <c r="S19" t="n">
-        <v>1494.965412843254</v>
+        <v>1295.794749234297</v>
       </c>
       <c r="T19" t="n">
-        <v>1494.965412843254</v>
+        <v>1169.103111279024</v>
       </c>
       <c r="U19" t="n">
-        <v>1494.965412843254</v>
+        <v>1169.103111279024</v>
       </c>
       <c r="V19" t="n">
-        <v>1494.965412843254</v>
+        <v>1169.103111279024</v>
       </c>
       <c r="W19" t="n">
-        <v>1205.548242806293</v>
+        <v>1169.103111279024</v>
       </c>
       <c r="X19" t="n">
-        <v>977.5586919082759</v>
+        <v>941.1135603810067</v>
       </c>
       <c r="Y19" t="n">
-        <v>756.7661127647458</v>
+        <v>720.3209812374765</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1702.891109739551</v>
+        <v>1217.224045208716</v>
       </c>
       <c r="C20" t="n">
-        <v>1333.928592799139</v>
+        <v>848.2615282683045</v>
       </c>
       <c r="D20" t="n">
-        <v>1333.928592799139</v>
+        <v>848.2615282683045</v>
       </c>
       <c r="E20" t="n">
-        <v>948.1403402008946</v>
+        <v>462.4732756700602</v>
       </c>
       <c r="F20" t="n">
-        <v>537.1544354112871</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="G20" t="n">
-        <v>121.1245186418703</v>
+        <v>51.48737088045268</v>
       </c>
       <c r="H20" t="n">
         <v>51.48737088045268</v>
@@ -5755,25 +5755,25 @@
         <v>160.7198690375147</v>
       </c>
       <c r="K20" t="n">
-        <v>453.0443780863899</v>
+        <v>375.1695864168674</v>
       </c>
       <c r="L20" t="n">
-        <v>755.9899772945819</v>
+        <v>741.1100159955217</v>
       </c>
       <c r="M20" t="n">
-        <v>1124.744765225608</v>
+        <v>1378.266230641124</v>
       </c>
       <c r="N20" t="n">
-        <v>1504.080199525454</v>
+        <v>1757.601664940969</v>
       </c>
       <c r="O20" t="n">
-        <v>1848.940632200849</v>
+        <v>2102.462097616364</v>
       </c>
       <c r="P20" t="n">
-        <v>2427.350753092018</v>
+        <v>2362.291497417765</v>
       </c>
       <c r="Q20" t="n">
-        <v>2574.299064885338</v>
+        <v>2509.239809211085</v>
       </c>
       <c r="R20" t="n">
         <v>2574.368544022634</v>
@@ -5788,16 +5788,16 @@
         <v>2442.259605073787</v>
       </c>
       <c r="V20" t="n">
-        <v>2442.259605073787</v>
+        <v>2111.196717730216</v>
       </c>
       <c r="W20" t="n">
-        <v>2089.490949803672</v>
+        <v>1758.428062460102</v>
       </c>
       <c r="X20" t="n">
-        <v>2089.490949803672</v>
+        <v>1758.428062460102</v>
       </c>
       <c r="Y20" t="n">
-        <v>2089.490949803672</v>
+        <v>1368.28873048429</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>222.5577764952838</v>
       </c>
       <c r="K21" t="n">
-        <v>442.7054684741327</v>
+        <v>538.077300018678</v>
       </c>
       <c r="L21" t="n">
-        <v>700.3850997652826</v>
+        <v>795.7569313098278</v>
       </c>
       <c r="M21" t="n">
-        <v>1337.541314410885</v>
+        <v>1115.813775235851</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.697529056486</v>
+        <v>1752.969989881453</v>
       </c>
       <c r="O21" t="n">
-        <v>2266.197579430401</v>
+        <v>2044.470040255368</v>
       </c>
       <c r="P21" t="n">
-        <v>2480.81900271059</v>
+        <v>2259.091463535557</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.368544022634</v>
+        <v>2560.617519706091</v>
       </c>
       <c r="R21" t="n">
         <v>2574.368544022634</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>531.1913884708185</v>
+        <v>370.459266562435</v>
       </c>
       <c r="C22" t="n">
-        <v>362.2552055429117</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="D22" t="n">
-        <v>362.2552055429117</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="E22" t="n">
-        <v>362.2552055429117</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="F22" t="n">
-        <v>219.6196940669941</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="G22" t="n">
-        <v>51.48737088045268</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="H22" t="n">
         <v>51.48737088045268</v>
@@ -5940,22 +5940,22 @@
         <v>1295.794749234297</v>
       </c>
       <c r="T22" t="n">
-        <v>1295.794749234297</v>
+        <v>1203.687218219344</v>
       </c>
       <c r="U22" t="n">
-        <v>1006.668455820236</v>
+        <v>914.5609248052825</v>
       </c>
       <c r="V22" t="n">
-        <v>751.9839676143487</v>
+        <v>659.8764365993957</v>
       </c>
       <c r="W22" t="n">
-        <v>751.9839676143487</v>
+        <v>370.459266562435</v>
       </c>
       <c r="X22" t="n">
-        <v>751.9839676143487</v>
+        <v>370.459266562435</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.1913884708185</v>
+        <v>370.459266562435</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>97.06638202270321</v>
       </c>
       <c r="J23" t="n">
-        <v>317.9807834399713</v>
+        <v>373.7045292001183</v>
       </c>
       <c r="K23" t="n">
-        <v>853.3344592647771</v>
+        <v>788.2752035905249</v>
       </c>
       <c r="L23" t="n">
-        <v>1569.764660877915</v>
+        <v>1504.705405203663</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.537846966846</v>
+        <v>2318.478591292594</v>
       </c>
       <c r="N23" t="n">
-        <v>3195.846736434555</v>
+        <v>3130.787480760303</v>
       </c>
       <c r="O23" t="n">
-        <v>3917.699348560068</v>
+        <v>3852.640092885816</v>
       </c>
       <c r="P23" t="n">
-        <v>4496.109469451238</v>
+        <v>4431.050213776985</v>
       </c>
       <c r="Q23" t="n">
-        <v>4853.249621997864</v>
+        <v>4788.190366323612</v>
       </c>
       <c r="R23" t="n">
         <v>4853.31910113516</v>
@@ -6068,28 +6068,28 @@
         <v>97.06638202270321</v>
       </c>
       <c r="J24" t="n">
-        <v>143.3066626505296</v>
+        <v>268.1367876375343</v>
       </c>
       <c r="K24" t="n">
-        <v>300.4934920119467</v>
+        <v>687.1442016414042</v>
       </c>
       <c r="L24" t="n">
-        <v>558.1731233030965</v>
+        <v>1135.55571595605</v>
       </c>
       <c r="M24" t="n">
-        <v>878.2299672291201</v>
+        <v>1455.612559882074</v>
       </c>
       <c r="N24" t="n">
-        <v>1630.352844114776</v>
+        <v>1798.549001023704</v>
       </c>
       <c r="O24" t="n">
-        <v>2311.776590572652</v>
+        <v>2090.049051397619</v>
       </c>
       <c r="P24" t="n">
-        <v>2526.398013852841</v>
+        <v>2304.670474677808</v>
       </c>
       <c r="Q24" t="n">
-        <v>2619.947555164885</v>
+        <v>2606.196530848342</v>
       </c>
       <c r="R24" t="n">
         <v>2619.947555164885</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>366.0121708708696</v>
+        <v>686.5121347396762</v>
       </c>
       <c r="C25" t="n">
-        <v>366.0121708708696</v>
+        <v>517.5759518117693</v>
       </c>
       <c r="D25" t="n">
-        <v>215.8955314585338</v>
+        <v>517.5759518117693</v>
       </c>
       <c r="E25" t="n">
-        <v>215.8955314585338</v>
+        <v>517.5759518117693</v>
       </c>
       <c r="F25" t="n">
-        <v>215.8955314585338</v>
+        <v>370.6860043138589</v>
       </c>
       <c r="G25" t="n">
-        <v>215.8955314585338</v>
+        <v>247.1020947767786</v>
       </c>
       <c r="H25" t="n">
         <v>97.06638202270321</v>
@@ -6177,22 +6177,22 @@
         <v>1540.544423985504</v>
       </c>
       <c r="T25" t="n">
-        <v>1540.544423985504</v>
+        <v>1316.942729611463</v>
       </c>
       <c r="U25" t="n">
-        <v>1540.544423985504</v>
+        <v>1316.942729611463</v>
       </c>
       <c r="V25" t="n">
-        <v>1285.859935779617</v>
+        <v>1316.942729611463</v>
       </c>
       <c r="W25" t="n">
-        <v>996.4427657426568</v>
+        <v>1316.942729611463</v>
       </c>
       <c r="X25" t="n">
-        <v>768.4532148446394</v>
+        <v>1088.953178713446</v>
       </c>
       <c r="Y25" t="n">
-        <v>547.6606357011093</v>
+        <v>868.1605995699159</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>373.7045292001183</v>
       </c>
       <c r="K26" t="n">
-        <v>909.0582050249241</v>
+        <v>788.2752035905249</v>
       </c>
       <c r="L26" t="n">
-        <v>1625.488406638062</v>
+        <v>1504.705405203663</v>
       </c>
       <c r="M26" t="n">
-        <v>2439.261592726993</v>
+        <v>2318.478591292594</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.570482194702</v>
+        <v>3130.787480760303</v>
       </c>
       <c r="O26" t="n">
         <v>3852.640092885816</v>
@@ -6305,28 +6305,28 @@
         <v>97.06638202270321</v>
       </c>
       <c r="J27" t="n">
-        <v>143.3066626505296</v>
+        <v>268.1367876375343</v>
       </c>
       <c r="K27" t="n">
-        <v>300.4934920119467</v>
+        <v>687.1442016414042</v>
       </c>
       <c r="L27" t="n">
-        <v>558.1731233030965</v>
+        <v>1135.55571595605</v>
       </c>
       <c r="M27" t="n">
-        <v>878.2299672291201</v>
+        <v>1455.612559882074</v>
       </c>
       <c r="N27" t="n">
-        <v>1695.715358970869</v>
+        <v>1798.549001023704</v>
       </c>
       <c r="O27" t="n">
-        <v>2311.776590572652</v>
+        <v>2090.049051397619</v>
       </c>
       <c r="P27" t="n">
-        <v>2526.398013852841</v>
+        <v>2304.670474677808</v>
       </c>
       <c r="Q27" t="n">
-        <v>2619.947555164885</v>
+        <v>2606.196530848342</v>
       </c>
       <c r="R27" t="n">
         <v>2619.947555164885</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>710.9222454432493</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="C28" t="n">
-        <v>541.9860625153424</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="D28" t="n">
-        <v>391.8694231030067</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="E28" t="n">
-        <v>243.9563295206136</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="F28" t="n">
-        <v>97.06638202270321</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="G28" t="n">
-        <v>97.06638202270321</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="H28" t="n">
-        <v>97.06638202270321</v>
+        <v>207.3078914284427</v>
       </c>
       <c r="I28" t="n">
         <v>97.06638202270321</v>
@@ -6408,28 +6408,28 @@
         <v>1540.544423985504</v>
       </c>
       <c r="R28" t="n">
-        <v>1540.544423985504</v>
+        <v>1431.402689179452</v>
       </c>
       <c r="S28" t="n">
-        <v>1540.544423985504</v>
+        <v>1232.232025570495</v>
       </c>
       <c r="T28" t="n">
-        <v>1540.544423985504</v>
+        <v>1008.630331196454</v>
       </c>
       <c r="U28" t="n">
-        <v>1251.418130571443</v>
+        <v>719.5040377823927</v>
       </c>
       <c r="V28" t="n">
-        <v>1251.418130571443</v>
+        <v>464.8195495765059</v>
       </c>
       <c r="W28" t="n">
-        <v>1251.418130571443</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="X28" t="n">
-        <v>1113.363289417019</v>
+        <v>357.3436041825181</v>
       </c>
       <c r="Y28" t="n">
-        <v>892.570710273489</v>
+        <v>357.3436041825181</v>
       </c>
     </row>
     <row r="29">
@@ -6542,28 +6542,28 @@
         <v>97.06638202270321</v>
       </c>
       <c r="J30" t="n">
-        <v>143.3066626505296</v>
+        <v>268.1367876375343</v>
       </c>
       <c r="K30" t="n">
-        <v>300.4934920119467</v>
+        <v>687.1442016414042</v>
       </c>
       <c r="L30" t="n">
-        <v>558.1731233030965</v>
+        <v>944.8238329325541</v>
       </c>
       <c r="M30" t="n">
-        <v>878.2299672291201</v>
+        <v>1264.880676858578</v>
       </c>
       <c r="N30" t="n">
-        <v>1695.715358970869</v>
+        <v>1607.817118000208</v>
       </c>
       <c r="O30" t="n">
-        <v>2311.776590572652</v>
+        <v>1899.317168374123</v>
       </c>
       <c r="P30" t="n">
-        <v>2526.398013852841</v>
+        <v>2304.670474677808</v>
       </c>
       <c r="Q30" t="n">
-        <v>2619.947555164885</v>
+        <v>2606.196530848342</v>
       </c>
       <c r="R30" t="n">
         <v>2619.947555164885</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>175.4023795395453</v>
+        <v>395.0961150174321</v>
       </c>
       <c r="C31" t="n">
-        <v>175.4023795395453</v>
+        <v>395.0961150174321</v>
       </c>
       <c r="D31" t="n">
-        <v>175.4023795395453</v>
+        <v>244.9794756050963</v>
       </c>
       <c r="E31" t="n">
-        <v>175.4023795395453</v>
+        <v>97.06638202270321</v>
       </c>
       <c r="F31" t="n">
-        <v>175.4023795395453</v>
+        <v>97.06638202270321</v>
       </c>
       <c r="G31" t="n">
         <v>97.06638202270321</v>
@@ -6645,28 +6645,28 @@
         <v>1540.544423985504</v>
       </c>
       <c r="R31" t="n">
-        <v>1431.402689179452</v>
+        <v>1540.544423985504</v>
       </c>
       <c r="S31" t="n">
-        <v>1232.232025570495</v>
+        <v>1540.544423985504</v>
       </c>
       <c r="T31" t="n">
-        <v>1008.630331196454</v>
+        <v>1341.34794061115</v>
       </c>
       <c r="U31" t="n">
-        <v>719.5040377823927</v>
+        <v>1052.221647197089</v>
       </c>
       <c r="V31" t="n">
-        <v>464.8195495765059</v>
+        <v>797.5371589912019</v>
       </c>
       <c r="W31" t="n">
-        <v>175.4023795395453</v>
+        <v>797.5371589912019</v>
       </c>
       <c r="X31" t="n">
-        <v>175.4023795395453</v>
+        <v>797.5371589912019</v>
       </c>
       <c r="Y31" t="n">
-        <v>175.4023795395453</v>
+        <v>576.7445798476717</v>
       </c>
     </row>
     <row r="32">
@@ -6703,22 +6703,22 @@
         <v>373.7045292001183</v>
       </c>
       <c r="K32" t="n">
-        <v>909.0582050249241</v>
+        <v>788.2752035905249</v>
       </c>
       <c r="L32" t="n">
-        <v>1625.488406638062</v>
+        <v>1504.705405203663</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.261592726993</v>
+        <v>2318.478591292594</v>
       </c>
       <c r="N32" t="n">
-        <v>3251.570482194702</v>
+        <v>3130.787480760303</v>
       </c>
       <c r="O32" t="n">
-        <v>3973.423094320215</v>
+        <v>3852.640092885816</v>
       </c>
       <c r="P32" t="n">
-        <v>4551.833215211384</v>
+        <v>4431.050213776985</v>
       </c>
       <c r="Q32" t="n">
         <v>4788.190366323612</v>
@@ -6779,28 +6779,28 @@
         <v>97.06638202270321</v>
       </c>
       <c r="J33" t="n">
-        <v>143.3066626505296</v>
+        <v>268.1367876375343</v>
       </c>
       <c r="K33" t="n">
-        <v>300.4934920119467</v>
+        <v>687.1442016414042</v>
       </c>
       <c r="L33" t="n">
-        <v>558.1731233030965</v>
+        <v>1135.55571595605</v>
       </c>
       <c r="M33" t="n">
-        <v>878.2299672291201</v>
+        <v>1455.612559882074</v>
       </c>
       <c r="N33" t="n">
-        <v>1695.715358970869</v>
+        <v>1798.549001023704</v>
       </c>
       <c r="O33" t="n">
-        <v>2311.776590572652</v>
+        <v>2090.049051397619</v>
       </c>
       <c r="P33" t="n">
-        <v>2526.398013852841</v>
+        <v>2304.670474677808</v>
       </c>
       <c r="Q33" t="n">
-        <v>2619.947555164885</v>
+        <v>2606.196530848342</v>
       </c>
       <c r="R33" t="n">
         <v>2619.947555164885</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>491.2236102614763</v>
+        <v>243.9563295206136</v>
       </c>
       <c r="C34" t="n">
-        <v>322.2874273335694</v>
+        <v>243.9563295206136</v>
       </c>
       <c r="D34" t="n">
-        <v>322.2874273335694</v>
+        <v>243.9563295206136</v>
       </c>
       <c r="E34" t="n">
-        <v>322.2874273335694</v>
+        <v>243.9563295206136</v>
       </c>
       <c r="F34" t="n">
-        <v>322.2874273335694</v>
+        <v>97.06638202270321</v>
       </c>
       <c r="G34" t="n">
-        <v>322.2874273335694</v>
+        <v>97.06638202270321</v>
       </c>
       <c r="H34" t="n">
-        <v>172.2517145794941</v>
+        <v>97.06638202270321</v>
       </c>
       <c r="I34" t="n">
         <v>97.06638202270321</v>
@@ -6882,28 +6882,28 @@
         <v>1540.544423985504</v>
       </c>
       <c r="R34" t="n">
-        <v>1431.402689179452</v>
+        <v>1540.544423985504</v>
       </c>
       <c r="S34" t="n">
-        <v>1232.232025570495</v>
+        <v>1528.775526449581</v>
       </c>
       <c r="T34" t="n">
-        <v>1008.630331196454</v>
+        <v>1305.17383207554</v>
       </c>
       <c r="U34" t="n">
-        <v>1008.630331196454</v>
+        <v>1016.047538661478</v>
       </c>
       <c r="V34" t="n">
-        <v>1008.630331196454</v>
+        <v>761.3630504555915</v>
       </c>
       <c r="W34" t="n">
-        <v>719.2131611594937</v>
+        <v>471.9458804186309</v>
       </c>
       <c r="X34" t="n">
-        <v>491.2236102614763</v>
+        <v>243.9563295206136</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.2236102614763</v>
+        <v>243.9563295206136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1296.133675621415</v>
+        <v>960.9917874292025</v>
       </c>
       <c r="C35" t="n">
-        <v>927.1711586810034</v>
+        <v>592.0292704887909</v>
       </c>
       <c r="D35" t="n">
-        <v>927.1711586810034</v>
+        <v>592.0292704887909</v>
       </c>
       <c r="E35" t="n">
-        <v>541.3829060827591</v>
+        <v>592.0292704887909</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3970012931515</v>
+        <v>592.0292704887909</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3970012931515</v>
+        <v>358.8766262365453</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3970012931515</v>
+        <v>51.48737088045267</v>
       </c>
       <c r="I35" t="n">
         <v>51.48737088045267</v>
       </c>
       <c r="J35" t="n">
-        <v>281.9242853692461</v>
+        <v>328.1255180578677</v>
       </c>
       <c r="K35" t="n">
-        <v>496.3740027485989</v>
+        <v>542.5752354372205</v>
       </c>
       <c r="L35" t="n">
-        <v>799.3196019567908</v>
+        <v>845.5208346454124</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.074389887817</v>
+        <v>1214.275622576439</v>
       </c>
       <c r="N35" t="n">
-        <v>1547.409824187662</v>
+        <v>1593.611056876284</v>
       </c>
       <c r="O35" t="n">
-        <v>1892.270256863058</v>
+        <v>1938.471489551679</v>
       </c>
       <c r="P35" t="n">
-        <v>2152.099656664459</v>
+        <v>2198.30088935308</v>
       </c>
       <c r="Q35" t="n">
         <v>2509.239809211085</v>
@@ -6967,22 +6967,22 @@
         <v>2442.259605073787</v>
       </c>
       <c r="T35" t="n">
-        <v>2232.090547353414</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="U35" t="n">
-        <v>1978.483473298098</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="V35" t="n">
-        <v>1647.420585954527</v>
+        <v>2111.196717730216</v>
       </c>
       <c r="W35" t="n">
-        <v>1647.420585954527</v>
+        <v>2111.196717730216</v>
       </c>
       <c r="X35" t="n">
-        <v>1296.133675621415</v>
+        <v>1737.730959469136</v>
       </c>
       <c r="Y35" t="n">
-        <v>1296.133675621415</v>
+        <v>1347.591627493324</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>939.389060308894</v>
+        <v>939.3890603088935</v>
       </c>
       <c r="C36" t="n">
-        <v>764.9360310277671</v>
+        <v>764.9360310277665</v>
       </c>
       <c r="D36" t="n">
-        <v>616.0016213665158</v>
+        <v>616.0016213665151</v>
       </c>
       <c r="E36" t="n">
-        <v>456.7641663610602</v>
+        <v>456.7641663610596</v>
       </c>
       <c r="F36" t="n">
-        <v>310.2296083879452</v>
+        <v>310.2296083879446</v>
       </c>
       <c r="G36" t="n">
-        <v>173.3542184183327</v>
+        <v>173.3542184183325</v>
       </c>
       <c r="H36" t="n">
-        <v>77.90468307149892</v>
+        <v>77.90468307149877</v>
       </c>
       <c r="I36" t="n">
         <v>51.48737088045267</v>
       </c>
       <c r="J36" t="n">
-        <v>97.72765150827907</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K36" t="n">
-        <v>254.9144808696961</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L36" t="n">
-        <v>512.594112160846</v>
+        <v>1103.727729130342</v>
       </c>
       <c r="M36" t="n">
-        <v>991.8851501391977</v>
+        <v>1423.784573056365</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.041364784799</v>
+        <v>1766.721014197996</v>
       </c>
       <c r="O36" t="n">
-        <v>2266.197579430401</v>
+        <v>2058.221064571911</v>
       </c>
       <c r="P36" t="n">
-        <v>2480.81900271059</v>
+        <v>2272.842487852099</v>
       </c>
       <c r="Q36" t="n">
         <v>2574.368544022634</v>
@@ -7049,16 +7049,16 @@
         <v>2240.70721140144</v>
       </c>
       <c r="U36" t="n">
-        <v>2012.605661259393</v>
+        <v>2012.605661259392</v>
       </c>
       <c r="V36" t="n">
         <v>1777.45355302765</v>
       </c>
       <c r="W36" t="n">
-        <v>1523.216196299449</v>
+        <v>1523.216196299448</v>
       </c>
       <c r="X36" t="n">
-        <v>1315.364696093916</v>
+        <v>1315.364696093915</v>
       </c>
       <c r="Y36" t="n">
         <v>1107.604397328962</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>535.4458244928113</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="C37" t="n">
-        <v>366.5096415649044</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="D37" t="n">
-        <v>366.5096415649044</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="E37" t="n">
-        <v>366.5096415649044</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="F37" t="n">
-        <v>219.6196940669941</v>
+        <v>369.6554068210695</v>
       </c>
       <c r="G37" t="n">
-        <v>51.48737088045267</v>
+        <v>201.5230836345281</v>
       </c>
       <c r="H37" t="n">
         <v>51.48737088045267</v>
@@ -7128,19 +7128,19 @@
         <v>1072.193054860256</v>
       </c>
       <c r="U37" t="n">
-        <v>1072.193054860256</v>
+        <v>783.0667614461945</v>
       </c>
       <c r="V37" t="n">
-        <v>937.8868684665812</v>
+        <v>528.3822732403077</v>
       </c>
       <c r="W37" t="n">
-        <v>937.8868684665812</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="X37" t="n">
-        <v>937.8868684665812</v>
+        <v>516.5453543189799</v>
       </c>
       <c r="Y37" t="n">
-        <v>717.094289323051</v>
+        <v>516.5453543189799</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1633.253961978133</v>
+        <v>1758.428062460102</v>
       </c>
       <c r="C38" t="n">
-        <v>1264.291445037721</v>
+        <v>1389.46554551969</v>
       </c>
       <c r="D38" t="n">
-        <v>1264.291445037721</v>
+        <v>1031.19984691294</v>
       </c>
       <c r="E38" t="n">
-        <v>878.5031924394771</v>
+        <v>645.4115943146953</v>
       </c>
       <c r="F38" t="n">
-        <v>467.5172876498694</v>
+        <v>234.4256895250878</v>
       </c>
       <c r="G38" t="n">
         <v>51.48737088045267</v>
@@ -7174,25 +7174,25 @@
         <v>51.48737088045267</v>
       </c>
       <c r="J38" t="n">
-        <v>160.7198690375146</v>
+        <v>328.1255180578677</v>
       </c>
       <c r="K38" t="n">
-        <v>375.1695864168674</v>
+        <v>561.4332584228516</v>
       </c>
       <c r="L38" t="n">
-        <v>678.1151856250594</v>
+        <v>864.3788576310435</v>
       </c>
       <c r="M38" t="n">
-        <v>1046.869973556086</v>
+        <v>1233.13364556207</v>
       </c>
       <c r="N38" t="n">
-        <v>1530.365138645014</v>
+        <v>1612.469079861915</v>
       </c>
       <c r="O38" t="n">
-        <v>2167.521353290616</v>
+        <v>1957.32951253731</v>
       </c>
       <c r="P38" t="n">
-        <v>2427.350753092017</v>
+        <v>2217.158912338712</v>
       </c>
       <c r="Q38" t="n">
         <v>2574.299064885337</v>
@@ -7201,25 +7201,25 @@
         <v>2574.368544022634</v>
       </c>
       <c r="S38" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="T38" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="U38" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="V38" t="n">
-        <v>2574.368544022634</v>
+        <v>2111.196717730216</v>
       </c>
       <c r="W38" t="n">
-        <v>2574.368544022634</v>
+        <v>1758.428062460102</v>
       </c>
       <c r="X38" t="n">
-        <v>2409.993134018066</v>
+        <v>1758.428062460102</v>
       </c>
       <c r="Y38" t="n">
-        <v>2019.853802042255</v>
+        <v>1758.428062460102</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>51.48737088045267</v>
       </c>
       <c r="J39" t="n">
-        <v>97.72765150827907</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K39" t="n">
-        <v>254.9144808696961</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L39" t="n">
-        <v>512.594112160846</v>
+        <v>1103.727729130342</v>
       </c>
       <c r="M39" t="n">
-        <v>1149.750326806448</v>
+        <v>1423.784573056365</v>
       </c>
       <c r="N39" t="n">
-        <v>1615.290340468257</v>
+        <v>1766.721014197996</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.446555113859</v>
+        <v>2058.221064571911</v>
       </c>
       <c r="P39" t="n">
-        <v>2467.067978394047</v>
+        <v>2272.842487852099</v>
       </c>
       <c r="Q39" t="n">
-        <v>2560.617519706091</v>
+        <v>2574.368544022634</v>
       </c>
       <c r="R39" t="n">
         <v>2574.368544022634</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="C40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="D40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="E40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="F40" t="n">
-        <v>51.48737088045267</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="G40" t="n">
         <v>51.48737088045267</v>
@@ -7371,13 +7371,13 @@
         <v>419.2405384342554</v>
       </c>
       <c r="W40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="X40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
       <c r="Y40" t="n">
-        <v>198.377318378363</v>
+        <v>129.8233683972948</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>740.3320711079355</v>
+        <v>1155.650783624397</v>
       </c>
       <c r="C41" t="n">
-        <v>371.3695541675237</v>
+        <v>1155.650783624397</v>
       </c>
       <c r="D41" t="n">
-        <v>51.48737088045267</v>
+        <v>1155.650783624397</v>
       </c>
       <c r="E41" t="n">
-        <v>51.48737088045267</v>
+        <v>769.862531026153</v>
       </c>
       <c r="F41" t="n">
-        <v>51.48737088045267</v>
+        <v>358.8766262365453</v>
       </c>
       <c r="G41" t="n">
-        <v>51.48737088045267</v>
+        <v>358.8766262365453</v>
       </c>
       <c r="H41" t="n">
         <v>51.48737088045267</v>
@@ -7417,13 +7417,13 @@
         <v>375.1695864168674</v>
       </c>
       <c r="L41" t="n">
-        <v>678.1151856250594</v>
+        <v>806.169271669774</v>
       </c>
       <c r="M41" t="n">
-        <v>1046.869973556086</v>
+        <v>1443.325486315376</v>
       </c>
       <c r="N41" t="n">
-        <v>1530.365138645014</v>
+        <v>1822.660920615221</v>
       </c>
       <c r="O41" t="n">
         <v>2167.521353290616</v>
@@ -7438,25 +7438,25 @@
         <v>2574.368544022634</v>
       </c>
       <c r="S41" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="T41" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="U41" t="n">
-        <v>2574.368544022634</v>
+        <v>2305.855713925411</v>
       </c>
       <c r="V41" t="n">
-        <v>2243.305656679063</v>
+        <v>2305.855713925411</v>
       </c>
       <c r="W41" t="n">
-        <v>1890.537001408949</v>
+        <v>2305.855713925411</v>
       </c>
       <c r="X41" t="n">
-        <v>1517.071243147869</v>
+        <v>1932.389955664331</v>
       </c>
       <c r="Y41" t="n">
-        <v>1126.931911172057</v>
+        <v>1542.250623688519</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>51.48737088045267</v>
       </c>
       <c r="J42" t="n">
-        <v>97.72765150827907</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K42" t="n">
-        <v>254.9144808696961</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L42" t="n">
-        <v>512.594112160846</v>
+        <v>899.2448217903036</v>
       </c>
       <c r="M42" t="n">
-        <v>832.6509560868695</v>
+        <v>1219.301665716327</v>
       </c>
       <c r="N42" t="n">
-        <v>1300.012199514719</v>
+        <v>1562.238106857958</v>
       </c>
       <c r="O42" t="n">
-        <v>1937.168414160321</v>
+        <v>1853.738157231872</v>
       </c>
       <c r="P42" t="n">
-        <v>2467.067978394047</v>
+        <v>2259.091463535557</v>
       </c>
       <c r="Q42" t="n">
         <v>2560.617519706091</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>346.2904119607562</v>
+        <v>515.226594888663</v>
       </c>
       <c r="C43" t="n">
         <v>346.2904119607562</v>
@@ -7599,22 +7599,22 @@
         <v>1186.653014428245</v>
       </c>
       <c r="T43" t="n">
-        <v>1186.653014428245</v>
+        <v>1172.35212706832</v>
       </c>
       <c r="U43" t="n">
-        <v>897.5267210141833</v>
+        <v>1172.35212706832</v>
       </c>
       <c r="V43" t="n">
-        <v>748.731455934526</v>
+        <v>917.6676388624329</v>
       </c>
       <c r="W43" t="n">
-        <v>748.731455934526</v>
+        <v>917.6676388624329</v>
       </c>
       <c r="X43" t="n">
-        <v>748.731455934526</v>
+        <v>917.6676388624329</v>
       </c>
       <c r="Y43" t="n">
-        <v>527.9388767909959</v>
+        <v>696.8750597189028</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1424.16361372162</v>
+        <v>1292.054674772773</v>
       </c>
       <c r="C44" t="n">
-        <v>1055.201096781209</v>
+        <v>923.0921578323616</v>
       </c>
       <c r="D44" t="n">
-        <v>1055.201096781209</v>
+        <v>923.0921578323616</v>
       </c>
       <c r="E44" t="n">
-        <v>669.4128441829644</v>
+        <v>537.3039052341173</v>
       </c>
       <c r="F44" t="n">
-        <v>258.4269393933568</v>
+        <v>126.3180004445098</v>
       </c>
       <c r="G44" t="n">
         <v>51.48737088045267</v>
@@ -7648,13 +7648,13 @@
         <v>51.48737088045267</v>
       </c>
       <c r="J44" t="n">
-        <v>160.7198690375146</v>
+        <v>171.2121676770989</v>
       </c>
       <c r="K44" t="n">
-        <v>696.0735448623204</v>
+        <v>706.5658435019047</v>
       </c>
       <c r="L44" t="n">
-        <v>999.0191440705123</v>
+        <v>1009.511442710097</v>
       </c>
       <c r="M44" t="n">
         <v>1378.266230641123</v>
@@ -7675,25 +7675,25 @@
         <v>2574.368544022634</v>
       </c>
       <c r="S44" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="T44" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="U44" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="V44" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="W44" t="n">
-        <v>2574.368544022634</v>
+        <v>2442.259605073787</v>
       </c>
       <c r="X44" t="n">
-        <v>2200.902785761554</v>
+        <v>2068.793846812707</v>
       </c>
       <c r="Y44" t="n">
-        <v>1810.763453785742</v>
+        <v>1678.654514836895</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>939.3890603088935</v>
+        <v>939.389060308894</v>
       </c>
       <c r="C45" t="n">
-        <v>764.9360310277665</v>
+        <v>764.9360310277671</v>
       </c>
       <c r="D45" t="n">
-        <v>616.0016213665151</v>
+        <v>616.0016213665158</v>
       </c>
       <c r="E45" t="n">
-        <v>456.7641663610596</v>
+        <v>456.7641663610602</v>
       </c>
       <c r="F45" t="n">
-        <v>310.2296083879446</v>
+        <v>310.2296083879452</v>
       </c>
       <c r="G45" t="n">
-        <v>173.3542184183325</v>
+        <v>173.3542184183327</v>
       </c>
       <c r="H45" t="n">
-        <v>77.90468307149877</v>
+        <v>77.90468307149892</v>
       </c>
       <c r="I45" t="n">
         <v>51.48737088045267</v>
       </c>
       <c r="J45" t="n">
-        <v>97.72765150827907</v>
+        <v>222.5577764952838</v>
       </c>
       <c r="K45" t="n">
-        <v>254.9144808696961</v>
+        <v>641.5651904991537</v>
       </c>
       <c r="L45" t="n">
-        <v>879.7260540112705</v>
+        <v>899.2448217903036</v>
       </c>
       <c r="M45" t="n">
-        <v>1199.782897937294</v>
+        <v>1410.033548739823</v>
       </c>
       <c r="N45" t="n">
-        <v>1615.290340468257</v>
+        <v>1752.969989881453</v>
       </c>
       <c r="O45" t="n">
-        <v>2252.446555113859</v>
+        <v>2044.470040255368</v>
       </c>
       <c r="P45" t="n">
-        <v>2467.067978394047</v>
+        <v>2259.091463535557</v>
       </c>
       <c r="Q45" t="n">
         <v>2560.617519706091</v>
@@ -7760,16 +7760,16 @@
         <v>2240.70721140144</v>
       </c>
       <c r="U45" t="n">
-        <v>2012.605661259392</v>
+        <v>2012.605661259393</v>
       </c>
       <c r="V45" t="n">
         <v>1777.45355302765</v>
       </c>
       <c r="W45" t="n">
-        <v>1523.216196299448</v>
+        <v>1523.216196299449</v>
       </c>
       <c r="X45" t="n">
-        <v>1315.364696093915</v>
+        <v>1315.364696093916</v>
       </c>
       <c r="Y45" t="n">
         <v>1107.604397328962</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>557.595449155789</v>
+        <v>864.5348179714669</v>
       </c>
       <c r="C46" t="n">
-        <v>388.6592662278821</v>
+        <v>695.59863504356</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6592662278821</v>
+        <v>545.4819956312242</v>
       </c>
       <c r="E46" t="n">
-        <v>366.5096415649044</v>
+        <v>397.5689020488311</v>
       </c>
       <c r="F46" t="n">
-        <v>219.6196940669941</v>
+        <v>250.6789545509207</v>
       </c>
       <c r="G46" t="n">
-        <v>51.48737088045267</v>
+        <v>82.54663136437929</v>
       </c>
       <c r="H46" t="n">
         <v>51.48737088045267</v>
@@ -7833,25 +7833,25 @@
         <v>1494.965412843254</v>
       </c>
       <c r="S46" t="n">
-        <v>1295.794749234297</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="T46" t="n">
-        <v>1295.794749234297</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="U46" t="n">
-        <v>1295.794749234297</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="V46" t="n">
-        <v>1295.794749234297</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="W46" t="n">
-        <v>1006.377579197336</v>
+        <v>1494.965412843254</v>
       </c>
       <c r="X46" t="n">
-        <v>778.3880282993191</v>
+        <v>1266.975861945237</v>
       </c>
       <c r="Y46" t="n">
-        <v>557.595449155789</v>
+        <v>1046.183282801707</v>
       </c>
     </row>
   </sheetData>
@@ -7984,19 +7984,19 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L2" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,19 +8066,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N3" t="n">
         <v>170.9255890451739</v>
       </c>
       <c r="O3" t="n">
-        <v>180.5807728421703</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8227,13 +8227,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
         <v>269.6820883835273</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>170.9255890451739</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>180.5807728421703</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>173.5582843761708</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>179.5656510478621</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,13 +8543,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>176.3234617176304</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>184.1139464652501</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>188.1451232383682</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>165.6470788532168</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3023946662407</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>297.1916904080517</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>206.5483912525642</v>
       </c>
       <c r="Q12" t="n">
-        <v>49.7069073746359</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>31.63174625925747</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>76.31470132710876</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>165.6470788532168</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>212.3743947500294</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>192.6584677005011</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>105.2118492819025</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,16 +9178,16 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>295.2482646163706</v>
+        <v>122.4287033653858</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>320.3023946662407</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>297.1916904080517</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>192.6584677005006</v>
       </c>
       <c r="Q18" t="n">
-        <v>189.6878662671078</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,13 +9403,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>78.66140572679035</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>63.63114178834581</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>271.1125522369447</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>63.5968309266988</v>
+        <v>159.9320143050273</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>320.3023946662408</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>297.1916904080517</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8100032931375</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>202.1423808192463</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>192.6584677005013</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>413.3196320646714</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>202.1423808192463</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>258.7971495108275</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>192.6584677005013</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>327.8395769978474</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>327.8395769978474</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>192.6584677005011</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>202.1423808192463</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>90.31195890798787</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>192.6584677005013</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>327.8395769978474</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>31.63174625925747</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>122.4287033653854</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>165.6470788532163</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>206.5483912525638</v>
       </c>
       <c r="M36" t="n">
-        <v>160.8426202548769</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>297.1916904080516</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>349.1476406784718</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>31.63174625925747</v>
@@ -10822,10 +10822,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>19.04850806629409</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>105.2118492819021</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>295.2482646163705</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>206.5483912525638</v>
       </c>
       <c r="M39" t="n">
-        <v>320.3023946662406</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>123.8419924446246</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>349.1476406784718</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>31.63174625925747</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>129.3475616613279</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>271.1125522369446</v>
       </c>
       <c r="N41" t="n">
-        <v>105.2118492819021</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>295.2482646163705</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>125.6816184709282</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>349.1476406784718</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>192.6584677005006</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.59828145412556</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11305,7 +11305,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>10.59828145412547</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>192.6584677005004</v>
       </c>
       <c r="N45" t="n">
-        <v>73.30404180740618</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>349.1476406784718</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>162.2911345788598</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>78.1205341085718</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.7878495593588</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0710033147635</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>68.47063632666465</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.450999954676</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.5353556265346</v>
       </c>
       <c r="I13" t="n">
-        <v>31.58645677000837</v>
+        <v>109.1390943116821</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>108.0503174579918</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>97.37362596785839</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.3656774303006</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2350304799209</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,22 +23500,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>411.8696176017226</v>
       </c>
       <c r="H14" t="n">
-        <v>304.3153628025318</v>
+        <v>51.85836988579121</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>78.1205341085718</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,19 +23551,19 @@
         <v>208.0673671431683</v>
       </c>
       <c r="U14" t="n">
-        <v>71.30417119364222</v>
+        <v>251.0710033147635</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.450999954676</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>109.1390943116821</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>108.0503174579918</v>
       </c>
       <c r="S16" t="n">
         <v>197.1789569728672</v>
       </c>
       <c r="T16" t="n">
-        <v>221.3656774303006</v>
+        <v>61.51239676859947</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2350304799209</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>109.2664441280838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>248.5219497120679</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>411.8696176017226</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>26.76205389267176</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>78.1205341085718</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>130.7878495593588</v>
       </c>
       <c r="T17" t="n">
-        <v>208.0673671431683</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0710033147635</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>55.14276977154402</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.450999954676</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>109.1390943116821</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>108.0503174579918</v>
       </c>
       <c r="S19" t="n">
-        <v>197.1789569728672</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.3656774303006</v>
+        <v>95.94095585458022</v>
       </c>
       <c r="U19" t="n">
         <v>286.2350304799209</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>233.1798032406626</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>411.8696176017226</v>
       </c>
       <c r="H20" t="n">
-        <v>235.3745865187283</v>
+        <v>304.3153628025318</v>
       </c>
       <c r="I20" t="n">
         <v>78.1205341085718</v>
@@ -24028,7 +24028,7 @@
         <v>251.0710033147635</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>4.21189166177291</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.450999954676</v>
       </c>
       <c r="H22" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>109.1390943116821</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.3656774303006</v>
+        <v>130.179221725497</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.450999954676</v>
+        <v>44.10292951296648</v>
       </c>
       <c r="H25" t="n">
-        <v>30.8944976850623</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>109.1390943116821</v>
@@ -24417,16 +24417,16 @@
         <v>197.1789569728672</v>
       </c>
       <c r="T25" t="n">
-        <v>221.3656774303006</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2350304799209</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.450999954676</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>109.1390943116821</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>108.0503174579918</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.1789569728672</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.3656774303006</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>180.1218123965431</v>
       </c>
       <c r="X28" t="n">
-        <v>89.03536264615772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>88.89836241300236</v>
+        <v>166.450999954676</v>
       </c>
       <c r="H31" t="n">
         <v>148.5353556265346</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>108.0503174579918</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.1789569728672</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>24.16115888969006</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.450999954676</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.5353556265346</v>
       </c>
       <c r="I34" t="n">
-        <v>34.70561508045913</v>
+        <v>109.1390943116821</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>108.0503174579918</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>185.5277484123029</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2350304799209</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.8696176017226</v>
+        <v>181.0484997919995</v>
       </c>
       <c r="H35" t="n">
-        <v>304.3153628025318</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.1205341085718</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0673671431683</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710033147635</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>21.95705944868791</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.5353556265346</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>109.1390943116821</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350304799209</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>119.1745187940898</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>274.8044486044765</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>230.7606821435339</v>
       </c>
       <c r="H38" t="n">
         <v>304.3153628025318</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.7878495593588</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>208.0673671431683</v>
@@ -25450,16 +25450,16 @@
         <v>251.0710033147635</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>206.9994447739476</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25560,10 +25560,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.450999954676</v>
+        <v>88.89836241300229</v>
       </c>
       <c r="H40" t="n">
         <v>148.5353556265346</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>67.86841048125754</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,22 +25630,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>37.99968016648262</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>411.8696176017226</v>
       </c>
       <c r="H41" t="n">
-        <v>304.3153628025318</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.1205341085718</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.7878495593588</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>208.0673671431683</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710033147635</v>
+        <v>116.0311510778714</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3656774303006</v>
+        <v>207.2077989439747</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2350304799209</v>
       </c>
       <c r="V43" t="n">
-        <v>104.8303308949673</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>206.9994447739475</v>
+        <v>337.7872943333061</v>
       </c>
       <c r="H44" t="n">
         <v>304.3153628025318</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.7878495593588</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>208.0673671431683</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>124.5058342302213</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.5353556265346</v>
+        <v>117.7866877474473</v>
       </c>
       <c r="I46" t="n">
         <v>109.1390943116821</v>
@@ -26073,7 +26073,7 @@
         <v>108.0503174579918</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.1789569728672</v>
       </c>
       <c r="T46" t="n">
         <v>221.3656774303006</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>675765.6062019917</v>
+        <v>675765.6062019916</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>909857.1373636385</v>
+        <v>909857.1373636384</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>675765.6062019914</v>
+        <v>675765.6062019916</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>675765.6062019914</v>
+        <v>675765.6062019916</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583914</v>
@@ -26322,37 +26322,37 @@
         <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
-        <v>409833.7862468759</v>
+        <v>409833.7862468762</v>
       </c>
       <c r="F2" t="n">
-        <v>409833.7862468763</v>
+        <v>409833.7862468762</v>
       </c>
       <c r="G2" t="n">
-        <v>409833.7862468764</v>
+        <v>409833.7862468761</v>
       </c>
       <c r="H2" t="n">
         <v>409833.7862468761</v>
       </c>
       <c r="I2" t="n">
-        <v>528632.848880209</v>
+        <v>528632.8488802089</v>
       </c>
       <c r="J2" t="n">
         <v>528632.848880209</v>
       </c>
       <c r="K2" t="n">
+        <v>528632.8488802093</v>
+      </c>
+      <c r="L2" t="n">
         <v>528632.8488802091</v>
       </c>
-      <c r="L2" t="n">
-        <v>528632.848880209</v>
-      </c>
       <c r="M2" t="n">
+        <v>409833.7862468763</v>
+      </c>
+      <c r="N2" t="n">
         <v>409833.7862468761</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>409833.7862468759</v>
-      </c>
-      <c r="O2" t="n">
-        <v>409833.7862468762</v>
       </c>
       <c r="P2" t="n">
         <v>409833.7862468762</v>
@@ -26426,10 +26426,10 @@
         <v>392085.4318580095</v>
       </c>
       <c r="E4" t="n">
-        <v>23586.19490396561</v>
+        <v>23586.19490396562</v>
       </c>
       <c r="F4" t="n">
-        <v>23586.19490396563</v>
+        <v>23586.19490396562</v>
       </c>
       <c r="G4" t="n">
         <v>23586.19490396561</v>
@@ -26444,19 +26444,19 @@
         <v>68748.57705285182</v>
       </c>
       <c r="K4" t="n">
-        <v>68748.5770528518</v>
+        <v>68748.57705285182</v>
       </c>
       <c r="L4" t="n">
-        <v>68748.57705285185</v>
+        <v>68748.57705285182</v>
       </c>
       <c r="M4" t="n">
-        <v>23586.19490396561</v>
+        <v>23586.1949039656</v>
       </c>
       <c r="N4" t="n">
         <v>23586.1949039656</v>
       </c>
       <c r="O4" t="n">
-        <v>23586.19490396561</v>
+        <v>23586.1949039656</v>
       </c>
       <c r="P4" t="n">
         <v>23586.19490396561</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>112107.863121461</v>
+        <v>112107.8631214611</v>
       </c>
       <c r="C6" t="n">
         <v>125373.3307205439</v>
@@ -26530,40 +26530,40 @@
         <v>124394.0897142215</v>
       </c>
       <c r="E6" t="n">
-        <v>-536582.3044579281</v>
+        <v>-541929.3195842801</v>
       </c>
       <c r="F6" t="n">
-        <v>328500.2384633092</v>
+        <v>323153.2233369566</v>
       </c>
       <c r="G6" t="n">
-        <v>328500.2384633093</v>
+        <v>323153.2233369565</v>
       </c>
       <c r="H6" t="n">
-        <v>328500.238463309</v>
+        <v>323153.2233369566</v>
       </c>
       <c r="I6" t="n">
-        <v>215991.6677051656</v>
+        <v>215044.6178615291</v>
       </c>
       <c r="J6" t="n">
-        <v>357139.9865758415</v>
+        <v>356192.9367322051</v>
       </c>
       <c r="K6" t="n">
-        <v>367496.8704796455</v>
+        <v>366549.8206360092</v>
       </c>
       <c r="L6" t="n">
-        <v>366345.7378441632</v>
+        <v>365398.688000527</v>
       </c>
       <c r="M6" t="n">
-        <v>321093.3163464156</v>
+        <v>315746.3012200634</v>
       </c>
       <c r="N6" t="n">
-        <v>328500.2384633088</v>
+        <v>323153.2233369565</v>
       </c>
       <c r="O6" t="n">
-        <v>328500.2384633091</v>
+        <v>323153.2233369564</v>
       </c>
       <c r="P6" t="n">
-        <v>328500.2384633091</v>
+        <v>323153.2233369566</v>
       </c>
     </row>
   </sheetData>
@@ -27390,19 +27390,19 @@
         <v>342.3464931104212</v>
       </c>
       <c r="F2" t="n">
-        <v>367.2921687798708</v>
+        <v>369.669416036174</v>
       </c>
       <c r="G2" t="n">
-        <v>375.7188605532945</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>185.6011099569616</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27469,16 +27469,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H3" t="n">
         <v>72.65156727465587</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>171.5638082755731</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27548,22 +27548,22 @@
         <v>106.8500856847286</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>122.643295545599</v>
       </c>
       <c r="I4" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>217.9680370670172</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27618,19 +27618,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>325.689014809167</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>341.7575513618511</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>397.3040036434021</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>375.7188605532945</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,25 +27700,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>112.5795867366496</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27745,10 +27745,10 @@
         <v>60.57395719080255</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T6" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>212.5537663619874</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>261.9525015744755</v>
       </c>
       <c r="X7" t="n">
-        <v>186.1257784271966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>179.0007763902542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>337.7981976930332</v>
       </c>
       <c r="F8" t="n">
         <v>362.7438733624829</v>
       </c>
       <c r="G8" t="n">
-        <v>386.4218192980553</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>384.6090473087214</v>
       </c>
     </row>
     <row r="9">
@@ -27937,25 +27937,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>109.3200394592721</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27994,7 +27994,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>212.8233657292951</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E10" t="n">
         <v>102.3017902673406</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>101.2888756437027</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28067,10 +28067,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>244.1178472646865</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -34704,19 +34704,19 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,19 +34786,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="O3" t="n">
-        <v>37.98452839772582</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34947,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="M6" t="n">
+      <c r="Q6" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="N6" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="O6" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>44.13217237922859</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>110.335856724305</v>
+        <v>279.4324718963788</v>
       </c>
       <c r="K11" t="n">
         <v>216.6158761407604</v>
@@ -35424,16 +35424,16 @@
         <v>383.1671053533789</v>
       </c>
       <c r="O11" t="n">
-        <v>536.4889946276561</v>
+        <v>348.3438713892879</v>
       </c>
       <c r="P11" t="n">
         <v>262.4539391933347</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.7476288349756</v>
+        <v>314.0797170282876</v>
       </c>
       <c r="R11" t="n">
-        <v>0.07018094676368491</v>
+        <v>65.78660081974613</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>172.7983895099304</v>
       </c>
       <c r="K12" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L12" t="n">
         <v>260.2824558496463</v>
       </c>
       <c r="M12" t="n">
-        <v>643.5921360056585</v>
+        <v>323.2897413394178</v>
       </c>
       <c r="N12" t="n">
-        <v>643.5921360056585</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O12" t="n">
         <v>294.4444953271866</v>
       </c>
       <c r="P12" t="n">
-        <v>216.7893164446348</v>
+        <v>423.3377076971991</v>
       </c>
       <c r="Q12" t="n">
-        <v>144.2013935484177</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R12" t="n">
-        <v>13.88992355206335</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>110.335856724305</v>
+        <v>279.4324718963788</v>
       </c>
       <c r="K14" t="n">
-        <v>540.7612887119251</v>
+        <v>216.6158761407604</v>
       </c>
       <c r="L14" t="n">
         <v>306.0056557658505</v>
@@ -35664,13 +35664,13 @@
         <v>348.3438713892879</v>
       </c>
       <c r="P14" t="n">
-        <v>338.7686405204435</v>
+        <v>262.4539391933347</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.4326381750709</v>
+        <v>314.0797170282876</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07018094676368491</v>
+        <v>65.78660081974613</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K15" t="n">
-        <v>371.1489698625718</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L15" t="n">
-        <v>631.1228011531055</v>
+        <v>452.9409235501474</v>
       </c>
       <c r="M15" t="n">
         <v>323.2897413394178</v>
@@ -35889,7 +35889,7 @@
         <v>216.6158761407604</v>
       </c>
       <c r="L17" t="n">
-        <v>411.2175050477529</v>
+        <v>306.0056557658505</v>
       </c>
       <c r="M17" t="n">
         <v>372.4795837687138</v>
@@ -35898,16 +35898,16 @@
         <v>383.1671053533789</v>
       </c>
       <c r="O17" t="n">
-        <v>643.5921360056585</v>
+        <v>470.7725747546737</v>
       </c>
       <c r="P17" t="n">
         <v>262.4539391933347</v>
       </c>
       <c r="Q17" t="n">
-        <v>148.4326381750709</v>
+        <v>360.7476288349756</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07018094676368491</v>
+        <v>65.78660081974613</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K18" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L18" t="n">
         <v>260.2824558496463</v>
       </c>
       <c r="M18" t="n">
-        <v>643.5921360056585</v>
+        <v>323.2897413394178</v>
       </c>
       <c r="N18" t="n">
-        <v>643.5921360056585</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O18" t="n">
         <v>294.4444953271866</v>
       </c>
       <c r="P18" t="n">
-        <v>216.7893164446348</v>
+        <v>409.4477841451355</v>
       </c>
       <c r="Q18" t="n">
-        <v>284.1823524408896</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>110.335856724305</v>
       </c>
       <c r="K20" t="n">
-        <v>295.2772818675508</v>
+        <v>216.6158761407604</v>
       </c>
       <c r="L20" t="n">
-        <v>306.0056557658505</v>
+        <v>369.6367975541963</v>
       </c>
       <c r="M20" t="n">
-        <v>372.4795837687138</v>
+        <v>643.5921360056585</v>
       </c>
       <c r="N20" t="n">
         <v>383.1671053533789</v>
@@ -36138,13 +36138,13 @@
         <v>348.3438713892879</v>
       </c>
       <c r="P20" t="n">
-        <v>584.2526473648174</v>
+        <v>262.4539391933347</v>
       </c>
       <c r="Q20" t="n">
         <v>148.4326381750709</v>
       </c>
       <c r="R20" t="n">
-        <v>0.07018094676368491</v>
+        <v>65.78660081974613</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,13 +36202,13 @@
         <v>172.7983895099304</v>
       </c>
       <c r="K21" t="n">
-        <v>222.3714060392413</v>
+        <v>318.7065894175698</v>
       </c>
       <c r="L21" t="n">
         <v>260.2824558496463</v>
       </c>
       <c r="M21" t="n">
-        <v>643.5921360056585</v>
+        <v>323.2897413394178</v>
       </c>
       <c r="N21" t="n">
         <v>643.5921360056585</v>
@@ -36220,10 +36220,10 @@
         <v>216.7893164446348</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>223.1458600174425</v>
+        <v>279.4324718963788</v>
       </c>
       <c r="K23" t="n">
-        <v>540.7612887119251</v>
+        <v>418.7582569600067</v>
       </c>
       <c r="L23" t="n">
         <v>723.6668703163009</v>
@@ -36381,7 +36381,7 @@
         <v>360.7476288349756</v>
       </c>
       <c r="R23" t="n">
-        <v>0.07018094676368491</v>
+        <v>65.78660081974613</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K24" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L24" t="n">
-        <v>260.2824558496463</v>
+        <v>452.9409235501477</v>
       </c>
       <c r="M24" t="n">
         <v>323.2897413394178</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7200776622782</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O24" t="n">
-        <v>688.3068146039161</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P24" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q24" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>279.4324718963788</v>
       </c>
       <c r="K26" t="n">
-        <v>540.7612887119251</v>
+        <v>418.7582569600067</v>
       </c>
       <c r="L26" t="n">
         <v>723.6668703163009</v>
@@ -36609,7 +36609,7 @@
         <v>820.514029765363</v>
       </c>
       <c r="O26" t="n">
-        <v>607.1410209001153</v>
+        <v>729.1440526520332</v>
       </c>
       <c r="P26" t="n">
         <v>584.2526473648174</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K27" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L27" t="n">
-        <v>260.2824558496463</v>
+        <v>452.9409235501477</v>
       </c>
       <c r="M27" t="n">
         <v>323.2897413394178</v>
       </c>
       <c r="N27" t="n">
-        <v>825.7428199411603</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O27" t="n">
-        <v>622.284072325034</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P27" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q27" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K30" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L30" t="n">
         <v>260.2824558496463</v>
@@ -36922,19 +36922,19 @@
         <v>323.2897413394178</v>
       </c>
       <c r="N30" t="n">
-        <v>825.7428199411603</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O30" t="n">
-        <v>622.284072325034</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P30" t="n">
-        <v>216.7893164446348</v>
+        <v>409.4477841451359</v>
       </c>
       <c r="Q30" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>279.4324718963788</v>
       </c>
       <c r="K32" t="n">
-        <v>540.7612887119251</v>
+        <v>418.7582569600067</v>
       </c>
       <c r="L32" t="n">
         <v>723.6668703163009</v>
@@ -37089,7 +37089,7 @@
         <v>584.2526473648174</v>
       </c>
       <c r="Q32" t="n">
-        <v>238.7445970830587</v>
+        <v>360.7476288349756</v>
       </c>
       <c r="R32" t="n">
         <v>65.78660081974613</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K33" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L33" t="n">
-        <v>260.2824558496463</v>
+        <v>452.9409235501477</v>
       </c>
       <c r="M33" t="n">
         <v>323.2897413394178</v>
       </c>
       <c r="N33" t="n">
-        <v>825.7428199411603</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O33" t="n">
-        <v>622.284072325034</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P33" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q33" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>13.88992355206335</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>232.7645600896904</v>
+        <v>279.4324718963788</v>
       </c>
       <c r="K35" t="n">
         <v>216.6158761407604</v>
@@ -37326,7 +37326,7 @@
         <v>262.4539391933347</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.7476288349756</v>
+        <v>314.0797170282872</v>
       </c>
       <c r="R35" t="n">
         <v>65.78660081974613</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K36" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L36" t="n">
-        <v>260.2824558496463</v>
+        <v>466.8308471022101</v>
       </c>
       <c r="M36" t="n">
-        <v>484.1323615942947</v>
+        <v>323.2897413394178</v>
       </c>
       <c r="N36" t="n">
-        <v>643.5921360056584</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O36" t="n">
-        <v>643.5921360056584</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P36" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q36" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>110.335856724305</v>
+        <v>279.4324718963788</v>
       </c>
       <c r="K38" t="n">
-        <v>216.6158761407604</v>
+        <v>235.6643842070545</v>
       </c>
       <c r="L38" t="n">
         <v>306.0056557658505</v>
@@ -37554,16 +37554,16 @@
         <v>372.4795837687138</v>
       </c>
       <c r="N38" t="n">
-        <v>488.378954635281</v>
+        <v>383.1671053533789</v>
       </c>
       <c r="O38" t="n">
-        <v>643.5921360056584</v>
+        <v>348.3438713892879</v>
       </c>
       <c r="P38" t="n">
         <v>262.4539391933347</v>
       </c>
       <c r="Q38" t="n">
-        <v>148.4326381750709</v>
+        <v>360.7476288349756</v>
       </c>
       <c r="R38" t="n">
         <v>0.07018094676368491</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K39" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L39" t="n">
-        <v>260.2824558496463</v>
+        <v>466.8308471022101</v>
       </c>
       <c r="M39" t="n">
-        <v>643.5921360056584</v>
+        <v>323.2897413394178</v>
       </c>
       <c r="N39" t="n">
-        <v>470.2424380422314</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O39" t="n">
-        <v>643.5921360056584</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P39" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q39" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R39" t="n">
-        <v>13.88992355206335</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>216.6158761407604</v>
       </c>
       <c r="L41" t="n">
-        <v>306.0056557658505</v>
+        <v>435.3532174271784</v>
       </c>
       <c r="M41" t="n">
-        <v>372.4795837687138</v>
+        <v>643.5921360056584</v>
       </c>
       <c r="N41" t="n">
-        <v>488.378954635281</v>
+        <v>383.1671053533789</v>
       </c>
       <c r="O41" t="n">
-        <v>643.5921360056584</v>
+        <v>348.3438713892879</v>
       </c>
       <c r="P41" t="n">
         <v>262.4539391933347</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K42" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L42" t="n">
         <v>260.2824558496463</v>
@@ -37870,16 +37870,16 @@
         <v>323.2897413394178</v>
       </c>
       <c r="N42" t="n">
-        <v>472.082064068535</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O42" t="n">
-        <v>643.5921360056584</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P42" t="n">
-        <v>535.2520850845719</v>
+        <v>409.4477841451355</v>
       </c>
       <c r="Q42" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R42" t="n">
         <v>13.88992355206335</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>110.335856724305</v>
+        <v>120.9341381784306</v>
       </c>
       <c r="K44" t="n">
         <v>540.7612887119251</v>
@@ -38025,7 +38025,7 @@
         <v>306.0056557658505</v>
       </c>
       <c r="M44" t="n">
-        <v>383.0778652228393</v>
+        <v>372.4795837687138</v>
       </c>
       <c r="N44" t="n">
         <v>383.1671053533789</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>46.70735416952161</v>
+        <v>172.7983895099304</v>
       </c>
       <c r="K45" t="n">
-        <v>158.7745751125425</v>
+        <v>423.2398121251211</v>
       </c>
       <c r="L45" t="n">
-        <v>631.1228011531055</v>
+        <v>260.2824558496463</v>
       </c>
       <c r="M45" t="n">
-        <v>323.2897413394178</v>
+        <v>515.9482090399182</v>
       </c>
       <c r="N45" t="n">
-        <v>419.704487405013</v>
+        <v>346.4004455976068</v>
       </c>
       <c r="O45" t="n">
-        <v>643.5921360056584</v>
+        <v>294.4444953271866</v>
       </c>
       <c r="P45" t="n">
         <v>216.7893164446348</v>
       </c>
       <c r="Q45" t="n">
-        <v>94.49448617378184</v>
+        <v>304.5717739096309</v>
       </c>
       <c r="R45" t="n">
         <v>13.88992355206335</v>
